--- a/project_1/results1.xlsx
+++ b/project_1/results1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obgppc\PycharmProjects\pythonProject\project_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholas/Documents/GitHub/SC2001-Projects/project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2623881D-0658-48AE-ABDA-FB97595C7E53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD849A0-024D-024F-AEB2-D53E77E08ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6910" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="19180" windowHeight="6920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c)i)" sheetId="1" r:id="rId1"/>
     <sheet name="c)ii)" sheetId="2" r:id="rId2"/>
     <sheet name="c)iii)" sheetId="3" r:id="rId3"/>
-    <sheet name="c)iv)" sheetId="4" r:id="rId4"/>
+    <sheet name="d)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -124,7 +124,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1146,7 +1146,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2168,7 +2168,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3266,7 +3266,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3855,7 +3855,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4444,7 +4444,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5034,7 +5034,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10070,15 +10070,15 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>7.9342999961227179E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>1.0661799926310779E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>1.6816499992273751E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>2.3186500067822639E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>3.0068600084632639E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>3.674359992146492E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>4.4896299950778477E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>5.9293200029060238E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>6.8469699937850237E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>7.2295300080440938E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>7.4783800053410232E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>0.1036491000559181</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>9.0609400067478418E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>9.7285000025294721E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>9.9275100044906139E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>0.111409500008449</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>0.1176389999454841</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>0.122496199910529</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>0.13364190002903339</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>0.14075540006160739</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>0.15024170000106099</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>0.1513843999709934</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>0.15105210000183431</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>0.15983580006286499</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>0.1766672000521794</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>0.17331930005457249</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>0.1905836000805721</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>0.19393200008198619</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>0.21331710007507351</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>0.21237339999061081</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>0.2195952000329271</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>0.23625220009125769</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>0.24962330004200339</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>0.23580900009255859</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>0.24310059996787459</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>0.24690369993913919</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>0.27172479999717319</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>0.26474070001859218</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>0.27500719996169209</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>0.2954038999741897</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>0.30504959996324033</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>0.29150499997194862</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>0.32987590006086981</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>0.32482680003158748</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>0.33470180002041161</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>0.34417339996434748</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>0.36708660004660493</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>0.38087910006288439</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>0.36564209999050951</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>0.37450559996068478</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>0.4483049000846222</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>0.46036939998157322</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>0.46357469994109118</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>0.41867189994081849</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>0.40314980002585799</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>0.40980769996531308</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>0.40905969997402281</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>0.41738120000809431</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>0.43495200003962958</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>0.48223920003511012</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>0.45360869995784009</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>0.44515149993821979</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>0.45669299992732698</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>0.45921439991798252</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>0.48584079998545349</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>0.49204809998627752</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>0.49458769999910152</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>0.52447649999521673</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>0.51199320005252957</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>0.51405130000784993</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>0.56631919997744262</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>0.53556019999086857</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>0.53249410004355013</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>0.68718710006214678</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>0.59866210003383458</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>0.56671069993171841</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>0.59063489991240203</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>0.57365959999151528</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>0.58975729998201132</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>0.59408619999885559</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>0.60375750006642193</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>0.62274100002832711</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>0.61877780000213534</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>0.64722849999088794</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>0.63969890004955232</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>0.69775599997956306</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>0.95978679996915162</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>0.91097139997873455</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>0.85059050004929304</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>0.91066609998233616</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>0.88406579999718815</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>0.91737490007653832</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>0.80408910010010004</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>0.74834379996173084</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>0.71833840000908822</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>0.75109879998490214</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>0.72983109997585416</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>0.76277459994889796</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>0.77366549998987466</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -12412,13 +12412,13 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>6.0830399976111948E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>6.1924099922180183E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>6.1482400051318109E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>6.0962600051425397E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>6.0866700019687407E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>6.0997399967163801E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>6.0971300001256168E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>6.098269997164607E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>6.0871200053952627E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>6.1059599975124002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>6.3530500046908855E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>6.0900100041180849E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>6.0924599994905293E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>6.1834600055590272E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>6.3802900025621057E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>6.3959100050851703E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>6.3348300056532025E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>6.1247800011187792E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>6.0915799927897751E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>6.0900099924765527E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>6.1005600029602647E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>6.0967100085690618E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>6.265860004350543E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>6.0928200022317469E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>6.2671299907378852E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>6.0756499995477498E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>6.0809400049038231E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>6.1970100039616227E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>6.1320099979639053E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>6.2632299959659576E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>6.4250800060108304E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>6.4024399966001511E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>6.3880200032144785E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>6.2219799961894751E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>6.1020100023597479E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>6.1227899976074703E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>6.1267500044777989E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>6.0961200040765107E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>6.1434699920937419E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>6.120660004671663E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>6.0992399929091327E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>6.0629000072367489E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>6.0725199989974499E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>6.0869600041769438E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>6.1341100023128092E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>6.1234199907630682E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>6.1015899991616607E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>6.0659499955363572E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>6.0941699892282493E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -13602,9 +13602,9 @@
       <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>5.8077999856323004E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>4.5955999521538624E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>4.5212999684736133E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>4.0050001116469502E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>4.0489999810233712E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>3.9826999418437481E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>3.9365000557154417E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>3.7628998979926109E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>3.8809999823570251E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>3.7678000517189498E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>3.782800049521029E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>3.7975000450387601E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>3.8055999903008342E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>3.7771000061184168E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>3.832200076431036E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>3.9450000040233144E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>4.1376999579370022E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>3.9271999849006534E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>3.9497000398114324E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>3.9190999232232571E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>4.0291999466717243E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>3.922100062482059E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>3.9607000071555376E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>3.9438999956473708E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>5.6933000450953841E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>7.1044899988919497E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>6.3582900096662343E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>5.8349900064058602E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -14111,7 +14111,7 @@
         <v>5.7140499935485423E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>5.2983899950049818E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>5.2892999956384301E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>5.2862199954688549E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>5.370519997086376E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>5.2303999895229943E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>5.2021300070919103E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -14230,7 +14230,7 @@
         <v>5.1550499978475273E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>5.1496799918822937E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>5.1583699998445809E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>5.148859997279942E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>5.1472500083036721E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>5.3336200071498752E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>5.1570900017395623E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>5.1831100019626319E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -14366,7 +14366,7 @@
         <v>5.2948400028981268E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>5.5111299967393279E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>5.5181600037030883E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>6.2223899993114173E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>5.6020900025032461E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>5.5633099982514977E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>5.529220006428659E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>0.87522380007430911</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>0.81463340006303042</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>0.71817300003021955</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>0.69955800008028746</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>0.69886500004213303</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>0.68690660002175719</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>0.6776474000653252</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>0.68518279993440956</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>0.69713599991519004</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>0.66462920000776649</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>0.68869420001283288</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>0.68486630008555949</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>0.66872880002483726</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>0.66669199999887496</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>0.67148929997347295</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>0.71529039996676147</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>0.69146939995698631</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>0.6729295999975875</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>0.66627089993562549</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>0.71885629999451339</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>0.69476020010188222</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>0.67206110002007335</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -14859,7 +14859,7 @@
         <v>0.69161129998974502</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>0.71599429997149855</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>0.73597779998090118</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>10.8167456999654</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>9.5149433999322355</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>9.527585000032559</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>8.9861055000219494</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>9.11130179988686</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>9.2474966000299901</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>8.8547281000064686</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>8.9101453999755904</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>8.6639652999583632</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>8.6936680999351665</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>8.6308858999982476</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>9.0254237999906763</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>9.2827841000398621</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>9.5283379000611603</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>9.2912150999763981</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>9.1176821000408381</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>9.1328643000451848</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>8.8660210000816733</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>8.8830055999569595</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>9.674076099996455</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>8.6737202999647707</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>8.711790099972859</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>8.8404407000634819</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>8.6255485999863595</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -15332,13 +15332,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15358,7 +15358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
